--- a/Data/JHUEM1, 2 NTC + variants, Log2 AUC data, 11-30-21.xlsx
+++ b/Data/JHUEM1, 2 NTC + variants, Log2 AUC data, 11-30-21.xlsx
@@ -5,31 +5,42 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pettya/Desktop/R Analysis/R Scripts/Final for TP53 paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pettya/Desktop/R Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F944CE20-36A6-9D4E-8E30-B919A4F43811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59034C50-09B6-D146-BCA7-F6A742804436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3340" windowWidth="28040" windowHeight="17440" xr2:uid="{8956F1F0-FAE5-0B47-9D3D-11D64DEB12CC}"/>
+    <workbookView xWindow="4160" yWindow="3660" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{8956F1F0-FAE5-0B47-9D3D-11D64DEB12CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variants" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="AUC" sheetId="3" r:id="rId3"/>
-    <sheet name="Log2 WT-mCh" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="AUC" sheetId="3" r:id="rId2"/>
+    <sheet name="JHUEM2 Log2 WT-mCh" sheetId="4" r:id="rId3"/>
+    <sheet name="JHUEM1 Log2 WT - mCh" sheetId="5" r:id="rId4"/>
+    <sheet name="JHUEM2 Log2 WT-mCh 2" sheetId="6" r:id="rId5"/>
+    <sheet name="JHUEM1 Log2 WT-mCh 2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <si>
     <t>WT</t>
   </si>
@@ -67,12 +78,6 @@
     <t>JHUEM1-NTC 3.1</t>
   </si>
   <si>
-    <t>NTC 1.1</t>
-  </si>
-  <si>
-    <t>NTC 3.1</t>
-  </si>
-  <si>
     <t>JHUEM2</t>
   </si>
   <si>
@@ -89,6 +94,27 @@
   </si>
   <si>
     <t>KO 6.1</t>
+  </si>
+  <si>
+    <t>KO 5.1C</t>
+  </si>
+  <si>
+    <t>KO 5.1E</t>
+  </si>
+  <si>
+    <t>KO 6.1B</t>
+  </si>
+  <si>
+    <t>KO 6.1C</t>
+  </si>
+  <si>
+    <t>KO 5.1L</t>
+  </si>
+  <si>
+    <t>KO 6.1J</t>
+  </si>
+  <si>
+    <t>KO 6.1L</t>
   </si>
 </sst>
 </file>
@@ -162,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9772E8-306C-6641-A1A4-03F65A27614B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -926,362 +952,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A34EC-E451-AB45-BA18-93E765A54616}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-7.7119999999999994E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-5.4850000000000003E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-0.27338000000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.9135499999999999E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.1819499999999998E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-0.13630800000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.7257000000000002E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.31207499999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4.9118000000000002E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-8.0121899999999996E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-3.8429600000000001E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-0.158663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.8094999999999998E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.29755300000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.3984E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.36745643</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.40490312000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.31021955000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.14815999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.36581900000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0113E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.32548169999999998</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.19984060000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.1704233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.120795</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.24354799999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.5620000000000002E-3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.24913086000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.27057165999999999</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.11352086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.5056000000000007E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.26098700000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-1.8859999999999998E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8.7911260000000005E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.3700149999999997E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-0.22963650999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-0.18604000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-0.27309</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.14448</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.22977300000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.25755699999999998</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.227521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.13795499999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7.5535000000000005E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.18828900000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.23917099999999999</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.29603099999999999</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.38299499999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.4452999999999995E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.0053999999999999E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.209729</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.524953</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.55139000000000005</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.66949800000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.145453</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.130437</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.14366200000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.55219700000000005</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.53837299999999999</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.63346599999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.144705</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-2.3619999999999999E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.19200800000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.407891</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.52563700000000002</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.53395700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.0709999999999992E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-2.4299999999999999E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3.8518999999999998E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.13755600000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.26858700000000002</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.12257999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6F97B2-CF60-FC42-B035-181C2C9A7EDF}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1299,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1313,10 +983,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>1.7290000000000001</v>
@@ -1330,10 +1000,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1.407</v>
@@ -1347,10 +1017,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1.744</v>
@@ -1364,10 +1034,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>2.4670000000000001</v>
@@ -1381,10 +1051,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>2.9359999999999999</v>
@@ -1398,10 +1068,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>3.5470000000000002</v>
@@ -1415,10 +1085,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>3.1059999999999999</v>
@@ -1432,10 +1102,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>2.5859999999999999</v>
@@ -1449,10 +1119,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>1.8979999999999999</v>
@@ -1466,10 +1136,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>3.66</v>
@@ -1483,10 +1153,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>2.7080000000000002</v>
@@ -1500,10 +1170,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <v>3.266</v>
@@ -1566,6 +1236,140 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331B26F8-57D0-FB4C-806C-7A615A408428}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-7.7119999999999994E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-5.4850000000000003E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.27338000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.18604000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.27309</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.14448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.52599019999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.83229280000000005</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.69796230000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.1352757</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-1.78894E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.48227049999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-4.7910000000000001E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.13106599999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.33235999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.62000999999999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.62495000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.47896</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1573,10 +1377,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331B26F8-57D0-FB4C-806C-7A615A408428}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD32EBD2-5C39-B049-AF9C-C7683574A2C4}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-4.3721400000000001E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-6.4977099999999996E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.9322999999999997E-3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-5.5440000000000003E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-1.498E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.5947E-2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.34633419999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.26484920000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.74484550000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.30599647000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.12910352999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-4.0235899999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.46367999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.36379</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1.7649999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-2.315E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.39501999999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.98931000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC4E448-7A9F-B741-A145-C68E6EB42988}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1585,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1599,10 +1566,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>-7.7119999999999994E-2</v>
@@ -1616,189 +1583,87 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="2">
-        <v>-4.3721400000000001E-2</v>
+        <v>-0.18604000000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>-6.4977099999999996E-2</v>
+        <v>-0.27309</v>
       </c>
       <c r="E3" s="2">
-        <v>4.9322999999999997E-3</v>
+        <v>-0.14448</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>-0.18604000000000001</v>
+        <v>-0.52599019999999996</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.27309</v>
+        <v>-0.83229280000000005</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.14448</v>
+        <v>-0.69796230000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>-5.5440000000000003E-2</v>
+        <v>-0.1352757</v>
       </c>
       <c r="D5" s="2">
-        <v>-1.498E-2</v>
+        <v>-1.78894E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>3.5947E-2</v>
+        <v>-0.48227049999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>-0.52599019999999996</v>
+        <v>-4.7910000000000001E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.83229280000000005</v>
+        <v>0.13106599999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.69796230000000004</v>
+        <v>-0.33235999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.34633419999999998</v>
+        <v>-0.62000999999999995</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.26484920000000001</v>
+        <v>-0.62495000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.74484550000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-0.1352757</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-1.78894E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.48227049999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.30599647000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.12910352999999999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-4.0235899999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-4.7910000000000001E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.13106599999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-0.33235999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-0.46367999999999998</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-0.36379</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-1.7649999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-0.62000999999999995</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-0.62495000000000001</v>
-      </c>
-      <c r="E12" s="2">
         <v>-0.47896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-2.315E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.39501999999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.98931000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1806,301 +1671,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD32EBD2-5C39-B049-AF9C-C7683574A2C4}">
-  <dimension ref="A1:M7"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0135CD-0041-FF4E-A54C-E26FC2B6D1AC}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-7.7119999999999994E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2">
-        <v>-5.4850000000000003E-2</v>
+        <v>-4.3721400000000001E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.27338000000000001</v>
+        <v>-6.4977099999999996E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>4.9135499999999999E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5.1819499999999998E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-0.13630800000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-0.18604000000000001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>-0.27309</v>
-      </c>
-      <c r="J2" s="2">
-        <v>-0.14448</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.22977300000000001</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.25755699999999998</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.227521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.9322999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5.7257000000000002E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>0.31207499999999999</v>
+        <v>-5.5440000000000003E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>4.9118000000000002E-2</v>
+        <v>-1.498E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>-8.0121899999999996E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-3.8429600000000001E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-0.158663</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.13795499999999999</v>
-      </c>
-      <c r="I3" s="2">
-        <v>7.5535000000000005E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.18828900000000001</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.23917099999999999</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.29603099999999999</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.38299499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.5947E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.8094999999999998E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>0.29755300000000001</v>
+        <v>-0.34633419999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>1.3984E-2</v>
+        <v>-0.26484920000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>0.36745643</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.40490312000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.31021955000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9.4452999999999995E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.0053999999999999E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.209729</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.524953</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.55139000000000005</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.66949800000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.74484550000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.14815999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="2">
-        <v>0.36581900000000001</v>
+        <v>0.30599647000000002</v>
       </c>
       <c r="D5" s="2">
-        <v>1.0113E-2</v>
+        <v>0.12910352999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>0.32548169999999998</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.19984060000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.1704233</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.145453</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.130437</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.14366200000000001</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.55219700000000005</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.53837299999999999</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.63346599999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.0235899999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.120795</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>0.24354799999999999</v>
+        <v>-0.46367999999999998</v>
       </c>
       <c r="D6" s="2">
-        <v>8.5620000000000002E-3</v>
+        <v>-0.36379</v>
       </c>
       <c r="E6" s="2">
-        <v>0.24913086000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.27057165999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.11352086</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.144705</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-2.3619999999999999E-2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.19200800000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.407891</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.52563700000000002</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.53395700000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.7649999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8.5056000000000007E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2">
-        <v>0.26098700000000002</v>
+        <v>-2.315E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>-1.8859999999999998E-2</v>
+        <v>0.39501999999999998</v>
       </c>
       <c r="E7" s="2">
-        <v>8.7911260000000005E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.3700149999999997E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-0.22963650999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9.0709999999999992E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-2.4299999999999999E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.8518999999999998E-2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.13755600000000001</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.26858700000000002</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.12257999999999999</v>
+        <v>-0.98931000000000002</v>
       </c>
     </row>
   </sheetData>
